--- a/tables/supptable_S1.xlsx
+++ b/tables/supptable_S1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="294">
   <si>
     <t>Reference</t>
   </si>
@@ -860,9 +860,6 @@
     <t>Studies which use models to simulate/compare the impacts of different control and surveillance measures</t>
   </si>
   <si>
-    <t>Studies which use models to examine potential drivers of dynamics (separate category from explain observed patterns because sometimes do not use data or observations but use models as hypotheticals)</t>
-  </si>
-  <si>
     <t>Studies that use models to predict incidence and/or burden of rabies in the future given current estimates and data</t>
   </si>
   <si>
@@ -902,14 +899,20 @@
     <t>Next-generation matrix model to estimate transmission parameters; transmission tree reconstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Lloyd-Smith, et al. 2009 </t>
+    <t>[@lloyd-smithEpidemicDynamicsHumanAnimal2009]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Studies which use models to examine potential drivers of dynamics (separate category from explain observed patterns because  do these do not use data or observations but use models as hypotheticals)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -964,6 +967,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -982,7 +992,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1166,8 +1176,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1205,11 +1225,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="193">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1301,6 +1322,11 @@
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1392,6 +1418,11 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1949,7 +1980,7 @@
         <v>219</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="60" hidden="1">
@@ -2015,7 +2046,7 @@
         <v>212</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="45">
@@ -2274,7 +2305,7 @@
         <v>237</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="90">
@@ -2535,7 +2566,7 @@
         <v>243</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="75">
@@ -2808,7 +2839,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>114</v>
@@ -2859,7 +2890,7 @@
         <v>225</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="75" hidden="1">
@@ -3258,7 +3289,7 @@
         <v>241</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="45">
@@ -4101,7 +4132,7 @@
         <v>234</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="45" hidden="1">
@@ -4486,7 +4517,7 @@
         <v>220</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="60" hidden="1">
@@ -4878,7 +4909,7 @@
         <v>235</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="60" hidden="1">
@@ -5135,7 +5166,7 @@
         <v>250</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -5166,14 +5197,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="560" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="107.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="15" customFormat="1">
@@ -5194,6 +5225,9 @@
       <c r="B2" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="C2" s="18" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -5202,6 +5236,9 @@
       <c r="B3" s="3" t="s">
         <v>270</v>
       </c>
+      <c r="C3" s="18" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -5210,6 +5247,9 @@
       <c r="B4" s="3" t="s">
         <v>271</v>
       </c>
+      <c r="C4" s="18" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -5218,6 +5258,9 @@
       <c r="B5" s="3" t="s">
         <v>272</v>
       </c>
+      <c r="C5" s="18" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -5226,6 +5269,9 @@
       <c r="B6" s="3" t="s">
         <v>273</v>
       </c>
+      <c r="C6" s="18" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -5234,6 +5280,9 @@
       <c r="B7" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="C7" s="18" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8" t="s">
@@ -5243,7 +5292,7 @@
         <v>275</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
@@ -5254,7 +5303,7 @@
         <v>276</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5265,24 +5314,26 @@
         <v>277</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>292</v>
@@ -5293,7 +5344,10 @@
         <v>201</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5301,7 +5355,10 @@
         <v>156</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5309,7 +5366,10 @@
         <v>200</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
@@ -5317,63 +5377,87 @@
         <v>202</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>282</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>283</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>204</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>284</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>205</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>285</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>151</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>286</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>159</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>287</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>268</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>178</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5393,7 +5477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="560" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tables/supptable_S1.xlsx
+++ b/tables/supptable_S1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="31540" windowHeight="19140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="31540" windowHeight="19140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ModelingStudies" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="DefineTerms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelingStudies!$A$1:$U$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelingStudies!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="346">
   <si>
     <t>Reference</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Model type</t>
   </si>
   <si>
-    <t>{Cleaveland:1995dn}</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
@@ -50,12 +47,6 @@
     <t>Deterministic ODE</t>
   </si>
   <si>
-    <t>{Coleman:1996uu}</t>
-  </si>
-  <si>
-    <t>{Bohrer:2002wl}</t>
-  </si>
-  <si>
     <t>Israel</t>
   </si>
   <si>
@@ -65,15 +56,9 @@
     <t>Stochastic spatial IBM</t>
   </si>
   <si>
-    <t>{Kitala:2002fz}</t>
-  </si>
-  <si>
     <t>Kenya</t>
   </si>
   <si>
-    <t>{Hampson:2007gu}</t>
-  </si>
-  <si>
     <t>Regional</t>
   </si>
   <si>
@@ -257,81 +242,6 @@
     <t>8 years of monthly reported human rabies cases in six provinces in China</t>
   </si>
   <si>
-    <t>{Mollentze:2014bz}</t>
-  </si>
-  <si>
-    <t>{Chen:2015fb}</t>
-  </si>
-  <si>
-    <t>{Durr:2015gh}</t>
-  </si>
-  <si>
-    <t>{Ferguson:2015cc}</t>
-  </si>
-  <si>
-    <t>{Wiraningsih:2015fq}</t>
-  </si>
-  <si>
-    <t>{Fitzpatrick:2014fq}</t>
-  </si>
-  <si>
-    <t>{Townsend:2013hm}</t>
-  </si>
-  <si>
-    <t>{Townsend:2013bc}</t>
-  </si>
-  <si>
-    <t>{Fitzpatrick:2012kp}</t>
-  </si>
-  <si>
-    <t>{Hou:2012fv}</t>
-  </si>
-  <si>
-    <t>{Zhang:2012vb}</t>
-  </si>
-  <si>
-    <t>{Zhang:2012fn}</t>
-  </si>
-  <si>
-    <t>{Beyer:2012ge}</t>
-  </si>
-  <si>
-    <t>{BHUNU:2011ca}</t>
-  </si>
-  <si>
-    <t>{Zhang:2011ec}</t>
-  </si>
-  <si>
-    <t>{Carroll:2010jc}</t>
-  </si>
-  <si>
-    <t>{Beyer:2011bp}</t>
-  </si>
-  <si>
-    <t>{Talbi:2010du}</t>
-  </si>
-  <si>
-    <t>{Zinsstag:2009ip}</t>
-  </si>
-  <si>
-    <t>{Hampson:2009jqa}</t>
-  </si>
-  <si>
-    <t>{WANG:2008fq}</t>
-  </si>
-  <si>
-    <t>{Lembo:2008fl}</t>
-  </si>
-  <si>
-    <t>{Tohma:2016et}</t>
-  </si>
-  <si>
-    <t>{Fitzpatrick:2016fo}</t>
-  </si>
-  <si>
-    <t>{Wera:2016jm}</t>
-  </si>
-  <si>
     <t>Two-patch models to look at transmission between coupled provinces in China</t>
   </si>
   <si>
@@ -392,36 +302,6 @@
     <t>Comparing vaccination and population control targets for stray vs. owned dogs</t>
   </si>
   <si>
-    <t>{Bourhy:2016hj}</t>
-  </si>
-  <si>
-    <t>{Bilinski:2016df}</t>
-  </si>
-  <si>
-    <t>{Sparkes:2016ds}</t>
-  </si>
-  <si>
-    <t>{Chapwanya:2016cl}</t>
-  </si>
-  <si>
-    <t>{Leung:2017bq}</t>
-  </si>
-  <si>
-    <t>{Kurosawa:2017cj}</t>
-  </si>
-  <si>
-    <t>{Zinsstag:2017gn}</t>
-  </si>
-  <si>
-    <t>{Asamoah:2017be}</t>
-  </si>
-  <si>
-    <t>{Liu:2017dk}</t>
-  </si>
-  <si>
-    <t>{MengistuTulu:2017fg}</t>
-  </si>
-  <si>
     <t>Modeling the impact of dog vaccination campaigns on observed incidence of rabies</t>
   </si>
   <si>
@@ -434,21 +314,6 @@
     <t>Comparing dog vaccination vs. human post- and pre-exposure prophylaxis on eliminating human deaths due to rabies</t>
   </si>
   <si>
-    <t>{Borse:2018ji}</t>
-  </si>
-  <si>
-    <t>{Kadowaki:2018ge}</t>
-  </si>
-  <si>
-    <t>{Laager:2018cv}</t>
-  </si>
-  <si>
-    <t>{Hampson:2018ek}</t>
-  </si>
-  <si>
-    <t>{Laager:2019bi}</t>
-  </si>
-  <si>
     <t>Assessing the risk of rabies outbreak into a naïve population</t>
   </si>
   <si>
@@ -458,24 +323,6 @@
     <t>Graph-based transmission tree reconstruction</t>
   </si>
   <si>
-    <t>{Tian:2018fe}</t>
-  </si>
-  <si>
-    <t>{Huang:2018iz}</t>
-  </si>
-  <si>
-    <t>{Cori:2018fn}</t>
-  </si>
-  <si>
-    <t>{Anderson:2019kp}</t>
-  </si>
-  <si>
-    <t>{Hudson:2019ef}</t>
-  </si>
-  <si>
-    <t>{WilsonAggarwal:2019cy}</t>
-  </si>
-  <si>
     <t>Exploring the impact of contact heterogeneity on rabies outbreak risk and size in an empirical domestic dog network</t>
   </si>
   <si>
@@ -906,6 +753,315 @@
   </si>
   <si>
     <t>Studies which use models to examine potential drivers of dynamics (separate category from explain observed patterns because  do these do not use data or observations but use models as hypotheticals)</t>
+  </si>
+  <si>
+    <t>Cleaveland and Dye 1995</t>
+  </si>
+  <si>
+    <t>Coleman and Dye 1996</t>
+  </si>
+  <si>
+    <t>Bohrer et al. 2002</t>
+  </si>
+  <si>
+    <t>Kitala et al. 2002</t>
+  </si>
+  <si>
+    <t>Hampson et al. 2007</t>
+  </si>
+  <si>
+    <t>Wang and Lou 2008</t>
+  </si>
+  <si>
+    <t>Lembo et al. 2008</t>
+  </si>
+  <si>
+    <t>Hampson et al. 2009</t>
+  </si>
+  <si>
+    <t>Zinsstag et al. 2009</t>
+  </si>
+  <si>
+    <t>Carroll et al. 2010</t>
+  </si>
+  <si>
+    <t>Talbi et al. 2010</t>
+  </si>
+  <si>
+    <t>Beyer et al. 2010</t>
+  </si>
+  <si>
+    <t>Zhang et al. 2011</t>
+  </si>
+  <si>
+    <t>Bhunu 2011</t>
+  </si>
+  <si>
+    <t>J Zhang et al. 2012</t>
+  </si>
+  <si>
+    <t>Fitzpatrick et al. 2012</t>
+  </si>
+  <si>
+    <t>Hou, Jin, and Ruan 2012</t>
+  </si>
+  <si>
+    <t>Beyer et al. 2012</t>
+  </si>
+  <si>
+    <t>Juan Zhang et al. 2012</t>
+  </si>
+  <si>
+    <t>S. E. Townsend, Sumantra, et al. 2013</t>
+  </si>
+  <si>
+    <t>S. E. Townsend, Lembo, et al. 2013</t>
+  </si>
+  <si>
+    <t>Mollentze et al. 2014</t>
+  </si>
+  <si>
+    <t>Fitzpatrick et al. 2014</t>
+  </si>
+  <si>
+    <t>Ferguson et al. 2015</t>
+  </si>
+  <si>
+    <t>Dürr and Ward 2015</t>
+  </si>
+  <si>
+    <t>Wiraningsih et al. 2015</t>
+  </si>
+  <si>
+    <t>Chen et al. 2015</t>
+  </si>
+  <si>
+    <t>Bourhy et al. 2016</t>
+  </si>
+  <si>
+    <t>Fitzpatrick et al. 2016</t>
+  </si>
+  <si>
+    <t>Wera et al. 2016</t>
+  </si>
+  <si>
+    <t>Bilinski et al. 2016</t>
+  </si>
+  <si>
+    <t>Sparkes et al. 2016</t>
+  </si>
+  <si>
+    <t>Chapwanya, Lubuma, and Terefe 2016</t>
+  </si>
+  <si>
+    <t>Tohma et al. 2016</t>
+  </si>
+  <si>
+    <t>Kurosawa et al. 2017</t>
+  </si>
+  <si>
+    <t>Leung and Davis 2017</t>
+  </si>
+  <si>
+    <t>Liu, Jia, and Zhang 2017</t>
+  </si>
+  <si>
+    <t>Asamoah et al. 2017</t>
+  </si>
+  <si>
+    <t>Mengistu Tulu 2017</t>
+  </si>
+  <si>
+    <t>Zinsstag et al. 2017</t>
+  </si>
+  <si>
+    <t>Cori et al. 2018</t>
+  </si>
+  <si>
+    <t>Huang et al. 2018</t>
+  </si>
+  <si>
+    <t>Tian et al. 2018</t>
+  </si>
+  <si>
+    <t>Borse et al. 2018</t>
+  </si>
+  <si>
+    <t>Kadowaki et al. 2018</t>
+  </si>
+  <si>
+    <t>Laager et al. 2018</t>
+  </si>
+  <si>
+    <t>Hudson et al. 2019</t>
+  </si>
+  <si>
+    <t>Anderson et al. 2019</t>
+  </si>
+  <si>
+    <t>Laager et al. 2019</t>
+  </si>
+  <si>
+    <t>Wilson-Aggarwal et al. 2019</t>
+  </si>
+  <si>
+    <t>Cite Key</t>
+  </si>
+  <si>
+    <t>@Cleaveland:1995dn</t>
+  </si>
+  <si>
+    <t>@Coleman:1996uu</t>
+  </si>
+  <si>
+    <t>@Bohrer:2002wl</t>
+  </si>
+  <si>
+    <t>@Kitala:2002fz</t>
+  </si>
+  <si>
+    <t>@Hampson:2007gu</t>
+  </si>
+  <si>
+    <t>@WANG:2008fq</t>
+  </si>
+  <si>
+    <t>@Lembo:2008fl</t>
+  </si>
+  <si>
+    <t>@Hampson:2009jqa</t>
+  </si>
+  <si>
+    <t>@Zinsstag:2009ip</t>
+  </si>
+  <si>
+    <t>@Carroll:2010jc</t>
+  </si>
+  <si>
+    <t>@Talbi:2010du</t>
+  </si>
+  <si>
+    <t>@Beyer:2011bp</t>
+  </si>
+  <si>
+    <t>@Zhang:2011ec</t>
+  </si>
+  <si>
+    <t>@BHUNU:2011ca</t>
+  </si>
+  <si>
+    <t>@Zhang:2012vb</t>
+  </si>
+  <si>
+    <t>@Fitzpatrick:2012kp</t>
+  </si>
+  <si>
+    <t>@Hou:2012fv</t>
+  </si>
+  <si>
+    <t>@Beyer:2012ge</t>
+  </si>
+  <si>
+    <t>@Zhang:2012fn</t>
+  </si>
+  <si>
+    <t>@Townsend:2013hm</t>
+  </si>
+  <si>
+    <t>@Townsend:2013bc</t>
+  </si>
+  <si>
+    <t>@Mollentze:2014bz</t>
+  </si>
+  <si>
+    <t>@Fitzpatrick:2014fq</t>
+  </si>
+  <si>
+    <t>@Ferguson:2015cc</t>
+  </si>
+  <si>
+    <t>@Durr:2015gh</t>
+  </si>
+  <si>
+    <t>@Wiraningsih:2015fq</t>
+  </si>
+  <si>
+    <t>@Chen:2015fb</t>
+  </si>
+  <si>
+    <t>@Bourhy:2016hj</t>
+  </si>
+  <si>
+    <t>@Fitzpatrick:2016fo</t>
+  </si>
+  <si>
+    <t>@Wera:2016jm</t>
+  </si>
+  <si>
+    <t>@Bilinski:2016df</t>
+  </si>
+  <si>
+    <t>@Sparkes:2016ds</t>
+  </si>
+  <si>
+    <t>@Chapwanya:2016cl</t>
+  </si>
+  <si>
+    <t>@Tohma:2016et</t>
+  </si>
+  <si>
+    <t>@Kurosawa:2017cj</t>
+  </si>
+  <si>
+    <t>@Leung:2017bq</t>
+  </si>
+  <si>
+    <t>@Liu:2017dk</t>
+  </si>
+  <si>
+    <t>@Asamoah:2017be</t>
+  </si>
+  <si>
+    <t>@MengistuTulu:2017fg</t>
+  </si>
+  <si>
+    <t>@Zinsstag:2017gn</t>
+  </si>
+  <si>
+    <t>@Cori:2018fn</t>
+  </si>
+  <si>
+    <t>@Huang:2018iz</t>
+  </si>
+  <si>
+    <t>@Hampson:2018ek</t>
+  </si>
+  <si>
+    <t>@Tian:2018fe</t>
+  </si>
+  <si>
+    <t>@Borse:2018ji</t>
+  </si>
+  <si>
+    <t>@Kadowaki:2018ge</t>
+  </si>
+  <si>
+    <t>@Laager:2018cv</t>
+  </si>
+  <si>
+    <t>@Hudson:2019ef</t>
+  </si>
+  <si>
+    <t>@Anderson:2019kp</t>
+  </si>
+  <si>
+    <t>@Laager:2019bi</t>
+  </si>
+  <si>
+    <t>@WilsonAggarwal:2019cy</t>
+  </si>
+  <si>
+    <t>WHO Rabies Modeling Consortium 2019</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1148,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="193">
+  <cellStyleXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1186,8 +1342,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1229,8 +1401,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="193">
+  <cellStyles count="209">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1327,6 +1507,14 @@
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1423,6 +1611,14 @@
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1752,16 +1948,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="5"/>
     <col min="4" max="4" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -1779,12 +1974,13 @@
     <col min="16" max="16" width="8.33203125" style="6" customWidth="1"/>
     <col min="17" max="17" width="8.1640625" style="6" customWidth="1"/>
     <col min="18" max="20" width="10.83203125" style="5"/>
-    <col min="21" max="21" width="70.83203125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="31.33203125" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="5"/>
+    <col min="21" max="21" width="31.33203125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="70.83203125" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="169">
+    <row r="1" spans="1:23" ht="169">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1795,3391 +1991,3541 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="45" hidden="1">
+        <v>127</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="45">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="B2" s="9">
         <v>1995</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="30">
+        <v>31</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="30">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="B3" s="9">
         <v>1996</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="60" hidden="1">
+        <v>238</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="60">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="B4" s="9">
         <v>2002</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="45">
+        <v>238</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="45">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="B5" s="9">
         <v>2002</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="60" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="60">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="B6" s="9">
         <v>2007</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="45" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="45">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="B7" s="9">
         <v>2008</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="60">
+        <v>31</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="60">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c r="B8" s="9">
         <v>2008</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="90">
+        <v>238</v>
+      </c>
+      <c r="V8" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="90">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c r="B9" s="9">
         <v>2009</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="45">
+        <v>32</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="45">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c r="B10" s="9">
         <v>2009</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="60" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="60">
       <c r="A11" s="10" t="s">
-        <v>92</v>
+        <v>252</v>
       </c>
       <c r="B11" s="10">
         <v>2010</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="45">
+        <v>31</v>
+      </c>
+      <c r="V11" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="45">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="B12" s="9">
         <v>2010</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="75">
+        <v>238</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="75">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="B13" s="2">
         <v>2010</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="45" hidden="1">
+        <v>32</v>
+      </c>
+      <c r="V13" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="45">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="B14" s="2">
         <v>2011</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="60" hidden="1">
+        <v>128</v>
+      </c>
+      <c r="V14" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="60">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>256</v>
       </c>
       <c r="B15" s="2">
         <v>2011</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="30" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V15" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="30">
       <c r="A16" s="2" t="s">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="B16" s="2">
         <v>2012</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="90">
+        <v>32</v>
+      </c>
+      <c r="V16" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="90">
       <c r="A17" s="2" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="B17" s="2">
         <v>2012</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="75" hidden="1">
+        <v>238</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="75">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="B18" s="1">
         <v>2012</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="60">
+        <v>128</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="60">
       <c r="A19" s="2" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="B19" s="2">
         <v>2012</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="75" hidden="1">
+        <v>32</v>
+      </c>
+      <c r="V19" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="75">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="B20" s="2">
         <v>2012</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="75">
+        <v>128</v>
+      </c>
+      <c r="V20" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="75">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c r="B21" s="1">
         <v>2013</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="60" hidden="1">
+        <v>129</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="60">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="B22" s="1">
         <v>2013</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="60">
+        <v>129</v>
+      </c>
+      <c r="V22" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="60">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="B23" s="2">
         <v>2014</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="45">
+        <v>238</v>
+      </c>
+      <c r="V23" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="45">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="B24" s="2">
         <v>2014</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="60" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V24" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="60">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="B25" s="2">
         <v>2015</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="45" hidden="1">
+        <v>129</v>
+      </c>
+      <c r="V25" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="45">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="B26" s="2">
         <v>2015</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="60" hidden="1">
+        <v>32</v>
+      </c>
+      <c r="V26" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="60">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="B27" s="2">
         <v>2015</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="45" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V27" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="45">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2">
         <v>2015</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="60">
+        <v>128</v>
+      </c>
+      <c r="V28" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="60">
       <c r="A29" s="2" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="B29" s="2">
         <v>2016</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="60">
+        <v>31</v>
+      </c>
+      <c r="V29" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="60">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2">
         <v>2016</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="45" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V30" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="45">
       <c r="A31" s="2" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="B31" s="2">
         <v>2016</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="45" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V31" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="45">
       <c r="A32" s="2" t="s">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2">
         <v>2016</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="90" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V32" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="90">
       <c r="A33" s="2" t="s">
-        <v>124</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2">
         <v>2016</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="60" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V33" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="60">
       <c r="A34" s="2" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2">
         <v>2016</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="75" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V34" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="75">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2">
         <v>2016</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="60">
+        <v>131</v>
+      </c>
+      <c r="V35" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="60">
       <c r="A36" s="2" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2">
         <v>2017</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="45" hidden="1">
+        <v>238</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="45">
       <c r="A37" s="2" t="s">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2">
         <v>2017</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="75" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V37" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="75">
       <c r="A38" s="2" t="s">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2">
         <v>2017</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="60" hidden="1">
+        <v>32</v>
+      </c>
+      <c r="V38" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="60">
       <c r="A39" s="2" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="B39" s="2">
         <v>2017</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="60" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V39" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="60">
       <c r="A40" s="2" t="s">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="B40" s="2">
         <v>2017</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="75">
+        <v>31</v>
+      </c>
+      <c r="V40" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="75">
       <c r="A41" s="2" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
       <c r="B41" s="2">
         <v>2017</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="60">
+        <v>31</v>
+      </c>
+      <c r="V41" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="60">
       <c r="A42" s="2" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="B42" s="2">
         <v>2018</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="60" hidden="1">
+        <v>238</v>
+      </c>
+      <c r="V42" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="60">
       <c r="A43" s="2" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="B43" s="2">
         <v>2018</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="V43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V43" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="W43" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="75">
+    <row r="44" spans="1:23" ht="75">
       <c r="A44" s="2" t="s">
-        <v>139</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2">
         <v>2018</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="45">
+        <v>32</v>
+      </c>
+      <c r="V44" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="45">
       <c r="A45" s="2" t="s">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="B45" s="2">
         <v>2018</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U45" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="60" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V45" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="60">
       <c r="A46" s="2" t="s">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="B46" s="2">
         <v>2018</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U46" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="45" hidden="1">
+        <v>31</v>
+      </c>
+      <c r="V46" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="45">
       <c r="A47" s="2" t="s">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="B47" s="2">
         <v>2018</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U47" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="45">
+        <v>32</v>
+      </c>
+      <c r="V47" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="45">
       <c r="A48" s="2" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="B48" s="2">
         <v>2018</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="V48" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="V48" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="60">
+      <c r="A49" s="2" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="60" hidden="1">
-      <c r="A49" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="B49" s="2">
         <v>2019</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U49" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="60" hidden="1">
+        <v>32</v>
+      </c>
+      <c r="V49" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="60">
       <c r="A50" s="2" t="s">
-        <v>147</v>
+        <v>290</v>
       </c>
       <c r="B50" s="2">
         <v>2019</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U50" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="45">
+        <v>31</v>
+      </c>
+      <c r="V50" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="45">
       <c r="A51" s="2" t="s">
-        <v>140</v>
+        <v>291</v>
       </c>
       <c r="B51" s="2">
         <v>2019</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U51" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="60" hidden="1">
+        <v>32</v>
+      </c>
+      <c r="V51" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="60">
       <c r="A52" s="11" t="s">
-        <v>149</v>
+        <v>292</v>
       </c>
       <c r="B52" s="12">
         <v>2019</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="S52" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T52" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="V52" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>238</v>
+      </c>
+      <c r="V52" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="L53" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U52">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5194,7 +5540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="560" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
@@ -5209,13 +5555,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="15" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5223,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5234,10 +5580,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5245,21 +5591,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5267,197 +5613,197 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5487,90 +5833,90 @@
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
